--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MAINE_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MAINE_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C5">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C9">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C16">
@@ -615,7 +615,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C18">
@@ -659,7 +659,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C21">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C22">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C26">
@@ -768,7 +768,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C29">
@@ -807,7 +807,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -970,7 +970,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C43">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C52">
@@ -1167,7 +1167,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C66">
@@ -1297,41 +1297,6 @@
       </c>
       <c r="D66">
         <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/MAINE_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/MAINE_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tlacolulan</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
